--- a/biology/Médecine/Études_de_maïeutique_en_France/Études_de_maïeutique_en_France.xlsx
+++ b/biology/Médecine/Études_de_maïeutique_en_France/Études_de_maïeutique_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+          <t>Études_de_maïeutique_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les études de maïeutique en France durent cinq  ans et sont sanctionnées par l'obtention du diplôme d'État de sage-femme. La formation est assurée par 35 écoles de sages-femmes dont la majorité sont des structures hospitalières, collaborant avec une université et notamment avec une unité de formation et de recherche de médecine[2].
+Les études de maïeutique en France durent cinq  ans et sont sanctionnées par l'obtention du diplôme d'État de sage-femme. La formation est assurée par 35 écoles de sages-femmes dont la majorité sont des structures hospitalières, collaborant avec une université et notamment avec une unité de formation et de recherche de médecine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+          <t>Études_de_maïeutique_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+          <t>Études_de_maïeutique_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,13 +552,89 @@
           <t>Déroulement des études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, les études de maïeutique durent 5 ans et sont divisées en deux cycles : un 1er cycle de 3 ans (6 semestres) et un 2e cycle de 2 ans (4 semestres).
-1er cycle
-La première année du 1er cycle est commune aux études de médecine, odontologie et pharmacie, c'est ce que l'on appelle « la Première année commune aux études de santé » (Paces). Les 2e et 3e années sont spécifiques à la formation de sage-femme. Le diplôme de formation générale en sciences maïeutiques (DFGSM) sanctionne la première partie des études en vue du diplôme d'État de sage-femme ; il comprend six semestres de formation validés par l'obtention de 180 crédits européens, correspondant au niveau licence[3].
-Première année commune aux études de Santé
-La Première année commune aux études de Santé (Paces) est la première année des études de maïeutique, médecine, odontologie, kinésithérapie et pharmacie. Cette année est commune à ces cinq filières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1er cycle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première année du 1er cycle est commune aux études de médecine, odontologie et pharmacie, c'est ce que l'on appelle « la Première année commune aux études de santé » (Paces). Les 2e et 3e années sont spécifiques à la formation de sage-femme. Le diplôme de formation générale en sciences maïeutiques (DFGSM) sanctionne la première partie des études en vue du diplôme d'État de sage-femme ; il comprend six semestres de formation validés par l'obtention de 180 crédits européens, correspondant au niveau licence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1er cycle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Première année commune aux études de Santé</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Première année commune aux études de Santé (Paces) est la première année des études de maïeutique, médecine, odontologie, kinésithérapie et pharmacie. Cette année est commune à ces cinq filières.
 Elle a été mise en place à la rentrée 2010. Elle fusionne la PCEM1 et la PCEP1. En général, elle est organisée dans chaque université par l'UFR de Médecine.
 L'objectif de cette année est triple :
 transmettre un savoir aux étudiants,
@@ -556,7 +646,7 @@
 50 ECTS d'UE communes à toutes les filières, pendant les deux semestres,
 une information sur les différents métiers auxquels on accède via la Paces et sur la recherche biomédicale, pendant le 1er semestre, et
 10 ECTS d'UE spécifique(s) à une filière de la Paces, pendant le 2d semestre.
-Il existe 4 UE spécifiques, une pour chaque filière. Les enseignements de ces UE peuvent être en partie mutualisés. Chaque étudiant choisit au début du 2d semestre le nombre d'UE spécifiques qu'il souhaite suivre. Le programme des UE communes est national[4], celui des UE spécifiques est à la liberté des universités.
+Il existe 4 UE spécifiques, une pour chaque filière. Les enseignements de ces UE peuvent être en partie mutualisés. Chaque étudiant choisit au début du 2d semestre le nombre d'UE spécifiques qu'il souhaite suivre. Le programme des UE communes est national, celui des UE spécifiques est à la liberté des universités.
 Il y a un concours par filière. Chaque concours comporte :
 les épreuves à l'issue du 1er semestre, sur les UE communes de celui-ci,
 les épreuves à l'issue du 2d semestre, sur les UE communes de celui-ci,
@@ -565,8 +655,47 @@
 Pour être admis dans une filière, il faut que l'étudiant soit classé en rang utile sur la liste de classement du concours correspondant.
 À l'issue des épreuves du 1er semestre, un pré-classement est établi et en fonction de celui-ci jusqu'à 15 % des inscrits peuvent être réorienter. De même à l'issue du 2d semestre, un classement sur les épreuves des UE communes est établi et les étudiants qui sont au-delà d'un certain rang peuvent être réorientés.
 Un étudiant peut obtenir une dérogation (accordée par le président de l'université) pour tripler la Paces, de façon exceptionnelle.
-3e, 4e, 5e et 6e semestres (2e et 3e années)
-Le régime de la formation conduisant, après la Paces, au DFGSMa (Diplôme de formation générale en sciences maïeutiques) est défini par l'arrêté du 19 juillet 2011 relatif au régime des études en vue du diplôme de formation générale en sciences maïeutiques[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1er cycle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3e, 4e, 5e et 6e semestres (2e et 3e années)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime de la formation conduisant, après la Paces, au DFGSMa (Diplôme de formation générale en sciences maïeutiques) est défini par l'arrêté du 19 juillet 2011 relatif au régime des études en vue du diplôme de formation générale en sciences maïeutiques.
 Les 3e et 4e semestres ont été mis en place à la rentrée 2011, les 5e et 6e semestres à la rentrée 2012. Cette fin de 1er cycle est organisée au sein des écoles hospitalières de sages-femmes ou dans les universités dispensant cette formation.
 Les objectifs de ces quatre semestres sont :
 de transmettre les connaissances scientifiques (sciences biologiques, humaines et sociales) indispensables à l'exercice de la profession de sage-femme ;
@@ -607,34 +736,292 @@
 La mutualisation des différents enseignements entre les filières de maïeutique, médecine, odontologie et pharmacie doit être favorisée.
 Une partie des études peut être effectuée à l'étranger.
 Concernant les MCC (modalités de contrôle des connaissances), les savoirs et les savoir-faire doivent être évalués à la fin de chaque semestre, soit par un examen terminal (« partiel »), soit par un contrôle continu, soit par une combinaison des deux. Une session de rattrapage doit également être organisée à chaque semestre.
-Diplôme de formation générale en sciences maïeutiques (DFGSMa)
-Le DFGSMa est délivré en fin de 6e semestre aux étudiants ayant satisfait aux épreuves de contrôle de connaissances, ayant validé l'ensemble des UE obligatoires et ayant capitalisé 180 crédits ECTS, et ce à partir de l'année universitaire 2012-2013.
-2e cycle
-10 %
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1er cycle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Diplôme de formation générale en sciences maïeutiques (DFGSMa)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le DFGSMa est délivré en fin de 6e semestre aux étudiants ayant satisfait aux épreuves de contrôle de connaissances, ayant validé l'ensemble des UE obligatoires et ayant capitalisé 180 crédits ECTS, et ce à partir de l'année universitaire 2012-2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2e cycle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 %
 Les quatrième et cinquième années dispensent le diplôme d'État de sage-femme. Elles allient connaissances théoriques et pratiques. Elles permettent à l’apprentissage du diagnostic et à la connaissance de la pathologie obstétricale, gynécologique et pédiatrique. 
-Diplôme d'État (DE) de sage-femme
-À partir de l'année 2014-2015, le diplôme d'État de sage-femme accorde le grade de master[6],[7].
-0 %
-3e cycle
-La formation permettant l'exercice de la profession de sage-femme dure 5 ans et aboutit à l'obtention du DE de sage-femme conférant le grade de master, comme expliqué plus haut. Toutefois il est possible, et certaines sages-femmes se saisissent de l'opportunité, de poursuivre ses études afin d'effectuer un 3e cycle d'études universitaires et d'obtenir le diplôme national de doctorat conférant le grade de doctorat. Il ne faut pas confondre le diplôme national de doctorat avec les diplômes d'État de docteur en médecine, de docteur en chirurgie dentaire, de docteur en pharmacie et de docteur vétérinaire qui sanctionnent respectivement la fin d'un 3e cycle d'études médicales, odontologiques, pharmaceutiques et vétérinaires et qui ne confèrent pas le grade de doctorat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2e cycle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Diplôme d'État (DE) de sage-femme</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+À partir de l'année 2014-2015, le diplôme d'État de sage-femme accorde le grade de master,.
+0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3e cycle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La formation permettant l'exercice de la profession de sage-femme dure 5 ans et aboutit à l'obtention du DE de sage-femme conférant le grade de master, comme expliqué plus haut. Toutefois il est possible, et certaines sages-femmes se saisissent de l'opportunité, de poursuivre ses études afin d'effectuer un 3e cycle d'études universitaires et d'obtenir le diplôme national de doctorat conférant le grade de doctorat. Il ne faut pas confondre le diplôme national de doctorat avec les diplômes d'État de docteur en médecine, de docteur en chirurgie dentaire, de docteur en pharmacie et de docteur vétérinaire qui sanctionnent respectivement la fin d'un 3e cycle d'études médicales, odontologiques, pharmaceutiques et vétérinaires et qui ne confèrent pas le grade de doctorat.
 Pour qu'une sage-femme accède à un 3e cycle d'études universitaires, il existe quatre solutions :
-reprendre ses études universitaires à différents niveaux du premier cycle, afin d'obtenir le diplôme national de licence[8] ;
-commencer une formation conduisant à l'obtention du diplôme national de master[9] ;
+reprendre ses études universitaires à différents niveaux du premier cycle, afin d'obtenir le diplôme national de licence ;
+commencer une formation conduisant à l'obtention du diplôme national de master ;
 acquérir une MSBM (Maîtrise de Sciences Biologiques et Médicales) permettant ensuite l'accès direct en 2de année des études conduisant à l'obtention du diplôme national de master ;
-commencer directement un 3e cycle d'études universitaires et entrer directement en école doctorale[10], mais cette option n'est envisageable que pour les sages-femmes détenant un DE de sage-femme obtenu en 2015 ou après car il confère le grade de master.
-Maîtrise de sciences biologiques et médicales (MSBM)
-Auparavant, les MSBM constituaient une maîtrise dont le but était la poursuite d'études en DEA (Diplôme d'Études Approfondies) puis en diplôme national de doctorat. Aujourd'hui et depuis l'initiation de la réforme LMD, ces MSBM consistent en la validation de quelques UE qui permettent l'accès direct en 2de année des études conduisant à l'obtention du diplôme national de master. C'est pourquoi on les appelle maintenant plus souvent « M1 Santé » ou « M1 ».
+commencer directement un 3e cycle d'études universitaires et entrer directement en école doctorale, mais cette option n'est envisageable que pour les sages-femmes détenant un DE de sage-femme obtenu en 2015 ou après car il confère le grade de master.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3e cycle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Maîtrise de sciences biologiques et médicales (MSBM)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Auparavant, les MSBM constituaient une maîtrise dont le but était la poursuite d'études en DEA (Diplôme d'Études Approfondies) puis en diplôme national de doctorat. Aujourd'hui et depuis l'initiation de la réforme LMD, ces MSBM consistent en la validation de quelques UE qui permettent l'accès direct en 2de année des études conduisant à l'obtention du diplôme national de master. C'est pourquoi on les appelle maintenant plus souvent « M1 Santé » ou « M1 ».
 Pour pouvoir accéder à ces M1 Santé, il faut généralement être inscrit :
 soit en 2e année des études maïeutiques, médicales, pharmaceutiques ou odontologiques,
 soit en 1re année d'école nationale vétérinaire.
 Le programme consiste en la validation de quelques UE (qui représentent une vingtaine ou une trentaine de crédits ECTS) qui peuvent être suivies sur plusieurs années d'études. Pour valider son M1 Santé et pouvoir continuer en M2, il faut :
 valider l'ensemble de ces UE et
-soit terminer son 2e cycle des études maïeutiques, médicales, pharmaceutiques ou odontologiques, soit obtenir son diplôme d'études fondamentales vétérinaires.
-Formation doctorale pour les sages-femmes
-0 %
-Diplômes universitaires (DU) et diplômes inter-universitaires (DIU)
-75 %
-Un DU/DIU est un diplôme d'université délivré par elle, contrairement aux diplômes de master ou de licence par exemple qui sont des diplômes nationaux, c'est-à-dire qu'ils sont délivrés au nom des ministères et qui sont cadrés par les ministères. Ils ont en général pour vocation d'apporter une formation complémentaire. La liste de DU/DIU qu'une sage-femme peut suivre est longue. Toutefois, le Cnosf (Conseil National de l'Ordre des Sages-Femmes) tient à jour une liste des DU/DIU dont une sage-femme peut faire mention sur sa plaque, son ordonnancier ou un annuaire professionnel[11] :
+soit terminer son 2e cycle des études maïeutiques, médicales, pharmaceutiques ou odontologiques, soit obtenir son diplôme d'études fondamentales vétérinaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3e cycle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Formation doctorale pour les sages-femmes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Diplômes universitaires (DU) et diplômes inter-universitaires (DIU)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75 %
+Un DU/DIU est un diplôme d'université délivré par elle, contrairement aux diplômes de master ou de licence par exemple qui sont des diplômes nationaux, c'est-à-dire qu'ils sont délivrés au nom des ministères et qui sont cadrés par les ministères. Ils ont en général pour vocation d'apporter une formation complémentaire. La liste de DU/DIU qu'une sage-femme peut suivre est longue. Toutefois, le Cnosf (Conseil National de l'Ordre des Sages-Femmes) tient à jour une liste des DU/DIU dont une sage-femme peut faire mention sur sa plaque, son ordonnancier ou un annuaire professionnel :
 Liste des DU/DIU reconnus par le Cnosf
 Acupuncture obstétricale :
 DIU « Acupuncture obstétricale » (universités Lille-II[DU 1], Montpellier-I[DU 2], Nîmes, Paris-XIII[DU 3], Rouen[DU 4], Strasbourg[DU 5]) ;
@@ -713,72 +1100,110 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Accès aux études de maïeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>0 %</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Passerelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>On distingue deux types de passerelles :
 les passerelles entrantes, qui permettent aux étudiants d'autres filières d'accéder aux études de Maïeutique ;
-les passerelles sortantes, et les dispenses de scolarité, qui permettent aux étudiants sages-femmes de se réorienter dans d'autres filières.
-Passerelles entrantes
-Pour entrer dans les études de Maïeutique, sans passer par la Paces, il existe trois passerelles entrantes :
+les passerelles sortantes, et les dispenses de scolarité, qui permettent aux étudiants sages-femmes de se réorienter dans d'autres filières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Passerelles</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Passerelles entrantes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour entrer dans les études de Maïeutique, sans passer par la Paces, il existe trois passerelles entrantes :
 admission directe en 3e année,
 admission directe en 2e année,
 admission en 2e année, par l'exercice du droit au remords.
 Ces trois passerelles concernent les études de Maïeutique, Médecine, Odontologie et Pharmacie et elles ont été mises en place en 2011.
-Afin d'entrer directement en 3e année[12] des études de Maïeutique, des étudiants peuvent présenter un dossier si :
+Afin d'entrer directement en 3e année des études de Maïeutique, des étudiants peuvent présenter un dossier si :
 ils disposent du diplôme d'État de docteur en médecine ;
 du diplôme d'État de docteur en pharmacie ;
 du diplôme d'État de docteur en chirurgie dentaire ;
@@ -788,7 +1213,7 @@
 ils sont anciens élèves de l'une des écoles normales supérieures (sous certaines conditions) ;
 ils appartiennent au corps des enseignants-chercheurs de l'enseignement supérieur et exercent leurs activités d'enseignement dans une UFR de Médecine, de Pharmacie ou d'Odontologie.
 Un candidat ne peut se présenter qu'à une seule des quatre filières chaque année. Un candidat ne peut se présenter que deux fois pour cette passerelle. Un jury définit la liste des admissibles qui doivent se présenter pour un entretien. À la suite de cela, le jury établit la liste des admis à poursuivre leurs études de maïeutique.
-Afin d'entrer directement en 2e année[13] des études de Maïeutique, des étudiants peuvent présenter un dossier si :
+Afin d'entrer directement en 2e année des études de Maïeutique, des étudiants peuvent présenter un dossier si :
 ils disposent d'un diplôme national de master ;
 d'un diplôme d'études approfondies ;
 d'un diplôme d'études supérieures spécialisées ;
@@ -797,127 +1222,310 @@
 d'un titre correspondant à la validation de 300 crédits européens ;
 ils ont validé (ou vont valider) deux années d'études ou de 120 crédits européens dans un cursus médical, odontologique ou pharmaceutique au-delà de la première année.
 Un candidat ne peut se présenter qu'à une seule des quatre filières chaque année. Un candidat ne peut se présenter que deux fois pour cette passerelle. Un jury définit la liste des admissibles qui doivent se présenter pour un entretien. À la suite de cela, le jury établit la liste des admis à poursuivre leurs études de maïeutique.
-Afin d'entrer en 2e année des études de maïeutique au prétexte du droit au remords[14], des étudiants justifiant de la validation d'au moins deux années d'études ou de 120 ECTS dans la filière Médecine, Odontologie ou Pharmacie et qui regrettent ce choix peuvent être autorisés à se réorienter en maïeutique s'ils pouvaient initialement y prétendre, à l'issue des épreuves de classement de fin de première année.
+Afin d'entrer en 2e année des études de maïeutique au prétexte du droit au remords, des étudiants justifiant de la validation d'au moins deux années d'études ou de 120 ECTS dans la filière Médecine, Odontologie ou Pharmacie et qui regrettent ce choix peuvent être autorisés à se réorienter en maïeutique s'ils pouvaient initialement y prétendre, à l'issue des épreuves de classement de fin de première année.
 Un candidat ne peut se présenter qu'à une seule des quatre filières chaque année. Un candidat ne peut se présenter que deux fois pour cette passerelle. Un jury définit la liste des admissibles qui doivent se présenter pour un entretien. À la suite de cela, le jury établit la liste des admis à poursuivre leurs études de maïeutique. Le choix de filière est définitif et il n'est ensuite plus possible de bénéficier de cette passerelle.
-La procédure d'admission de ces trois passerelles est définie par voie réglementaire[15]. Le nombre d'étudiants qui peuvent bénéficier de ces passerelles est défini chaque année par un arrêté des ministres chargés de l'Enseignement supérieur et de la Santé.
-Passerelles sortantes et dispenses de scolarité
-Les trois passerelles entrantes que nous avons citées au-dessus concernent aussi bien les étudiants en Maïeutique, Médecine, Odontologie ou Pharmacie. Les étudiants sages-femmes (ou les sages-femmes diplômé(e)s) peuvent donc s'en servir pour rejoindre une des trois autres filières. Rappelons ces trois passerelles :
+La procédure d'admission de ces trois passerelles est définie par voie réglementaire. Le nombre d'étudiants qui peuvent bénéficier de ces passerelles est défini chaque année par un arrêté des ministres chargés de l'Enseignement supérieur et de la Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Passerelles</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Passerelles sortantes et dispenses de scolarité</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Les trois passerelles entrantes que nous avons citées au-dessus concernent aussi bien les étudiants en Maïeutique, Médecine, Odontologie ou Pharmacie. Les étudiants sages-femmes (ou les sages-femmes diplômé(e)s) peuvent donc s'en servir pour rejoindre une des trois autres filières. Rappelons ces trois passerelles :
 admission directe en 3e année,
 admission directe en 2e année,
 admission en 2e année, par l'exercice du droit au remords.
-En sus de ces trois passerelles, les sages-femmes diplômé(e)s disposent de dispenses de scolarité[25] :
-accès direct à la formation menant au diplôme d'État de puériculteur[26],
-accès direct à la formation menant au diplôme d'État d'infirmier anesthésiste[27],
-accès direct à la formation menant au diplôme d'État d'infirmier de bloc opératoire[28],
-présentation de droit au jury du diplôme d'État d'infirmier[29],
-dispense de la 1re année d'études menant au diplôme d'État de masseur-kinésithérapeute[30],
-dispense de la 1re année d'études menant au diplôme d'État d'ergothérapeute[31].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+En sus de ces trois passerelles, les sages-femmes diplômé(e)s disposent de dispenses de scolarité :
+accès direct à la formation menant au diplôme d'État de puériculteur,
+accès direct à la formation menant au diplôme d'État d'infirmier anesthésiste,
+accès direct à la formation menant au diplôme d'État d'infirmier de bloc opératoire,
+présentation de droit au jury du diplôme d'État d'infirmier,
+dispense de la 1re année d'études menant au diplôme d'État de masseur-kinésithérapeute,
+dispense de la 1re année d'études menant au diplôme d'État d'ergothérapeute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Intégration des écoles de sage-femme à l'Université</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>0 %</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les statistiques présentées ci-dessous comprennent, sous orme de tableau ou de courbes :
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Les statistiques présentées ci-dessous comprennent, sous orme de tableau ou de courbes :
 l'évolution du numerus clausus annuel de chaque école ;
 l'évolution du numerus clausus annuel de chaque université de recrutement ;
 l'évolution du numerus clausus annuel national ;
 l'évolution du numerus clausus annuel de chaque filière de Santé ;
-et l'évolution du numerus clausus annuel de chaque filière de Santé.
-Numerus clausus annuel par école
-Les cellules en bleu représentent les années de sélection effectuées par la PCEM1.
+et l'évolution du numerus clausus annuel de chaque filière de Santé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Numerus clausus annuel par école</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules en bleu représentent les années de sélection effectuées par la PCEM1.
 Celles en orange les années de sélection effectuées par la Paces.
-Numerus clausus par université
-Figure 1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Figure 1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Graphique représentant le numerus clausus annuel des étudiants sages-femmes (année d'entrée en 2e année d'études)
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Lieux d'études</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>85 %
-Représentation associative des étudiants sages-femmes
-0 %
-Fédérations d'associations représentant les étudiants sages-femmes
-0 %</t>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85 %
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lieux d'études</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Représentation associative des étudiants sages-femmes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Études_de_maïeutique_en_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_ma%C3%AFeutique_en_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Lieux d'études</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Représentation associative des étudiants sages-femmes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fédérations d'associations représentant les étudiants sages-femmes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0 %</t>
         </is>
       </c>
     </row>
